--- a/wave.xlsx
+++ b/wave.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="149">
   <si>
     <t>FECHA</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Monica Palomino</t>
   </si>
   <si>
-    <t>palominogonzales.5</t>
+    <t>carmonagalindo.5</t>
   </si>
   <si>
     <t>Trainee2</t>
@@ -112,6 +112,9 @@
     <t>Tpcolombia2022*</t>
   </si>
   <si>
+    <t>Doordash</t>
+  </si>
+  <si>
     <t>No pudo jugar por error de drivers</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t>Gabriela Sampertegui</t>
   </si>
   <si>
-    <t>samperteguicordova.5</t>
+    <t>castillogil.10</t>
   </si>
   <si>
     <t>Trainee3</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>Trainee4</t>
-  </si>
-  <si>
-    <t>Doordash</t>
   </si>
   <si>
     <t>SI</t>
@@ -985,26 +985,26 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="11" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="12" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="9" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="13" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1753,93 +1753,101 @@
       <c r="E8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21" t="s">
+      <c r="F8" s="21">
+        <v>25603</v>
+      </c>
+      <c r="G8" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="25" t="s">
+      <c r="Q8" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="26" t="s">
-        <v>35</v>
+      <c r="S8" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="26.25">
       <c r="A9" s="1"/>
       <c r="B9" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="21">
+        <v>25603</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="26" t="s">
-        <v>35</v>
+      <c r="S9" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="26.25">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>25603</v>
       </c>
-      <c r="G10" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="21"/>
+      <c r="G10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="22"/>
       <c r="I10" s="28" t="s">
         <v>43</v>
       </c>
@@ -1862,14 +1870,14 @@
         <v>1</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="25" t="s">
+      <c r="Q10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="26" t="s">
-        <v>35</v>
+      <c r="S10" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T10" s="1"/>
     </row>
@@ -1888,8 +1896,8 @@
         <v>47</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="28" t="s">
         <v>48</v>
       </c>
@@ -1912,13 +1920,13 @@
         <v>1</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="25" t="s">
+      <c r="Q11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="S11" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T11" s="1"/>
@@ -1974,9 +1982,9 @@
         <v>60</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
-        <v>32</v>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22" t="s">
+        <v>33</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>55</v>
@@ -1988,13 +1996,13 @@
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="24" t="s">
+      <c r="Q13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T13" s="1"/>
@@ -2014,9 +2022,9 @@
         <v>60</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22" t="s">
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="43">
@@ -2038,13 +2046,13 @@
         <v>1</v>
       </c>
       <c r="P14" s="1"/>
-      <c r="Q14" s="24" t="s">
+      <c r="Q14" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="S14" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T14" s="1"/>
@@ -2064,8 +2072,8 @@
         <v>53</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="28" t="s">
         <v>64</v>
       </c>
@@ -2088,14 +2096,14 @@
         <v>1</v>
       </c>
       <c r="P15" s="1"/>
-      <c r="Q15" s="24" t="s">
+      <c r="Q15" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="S15" s="26" t="s">
-        <v>35</v>
+      <c r="S15" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T15" s="1"/>
     </row>
@@ -2114,8 +2122,8 @@
         <v>53</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="28" t="s">
         <v>43</v>
       </c>
@@ -2138,14 +2146,14 @@
         <v>1</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="26" t="s">
-        <v>35</v>
+      <c r="S16" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T16" s="1"/>
     </row>
@@ -2164,8 +2172,8 @@
         <v>53</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="28" t="s">
         <v>64</v>
       </c>
@@ -2188,14 +2196,14 @@
         <v>1</v>
       </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S17" s="26" t="s">
-        <v>35</v>
+      <c r="S17" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T17" s="1"/>
     </row>
@@ -2214,8 +2222,8 @@
         <v>31</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="45" t="s">
         <v>64</v>
       </c>
@@ -2238,14 +2246,14 @@
         <v>-1</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="24" t="s">
+      <c r="Q18" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S18" s="26" t="s">
-        <v>35</v>
+      <c r="S18" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T18" s="1"/>
     </row>
@@ -2295,7 +2303,7 @@
         <v>53</v>
       </c>
       <c r="S19" s="58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T19" s="59"/>
     </row>
@@ -2314,7 +2322,7 @@
         <v>80</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="61"/>
       <c r="I20" s="52" t="s">
         <v>64</v>
@@ -2358,8 +2366,8 @@
         <v>53</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="67" t="s">
@@ -2394,9 +2402,9 @@
         <v>31</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23" t="s">
         <v>64</v>
       </c>
       <c r="J22" s="43">
@@ -2418,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Q22" s="24" t="s">
+      <c r="Q22" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="26" t="s">
+      <c r="S22" s="27" t="s">
         <v>92</v>
       </c>
       <c r="T22" s="1"/>
@@ -2444,8 +2452,8 @@
         <v>53</v>
       </c>
       <c r="F23" s="3"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="28" t="s">
         <v>43</v>
       </c>
@@ -2468,14 +2476,14 @@
         <v>1</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S23" s="26" t="s">
-        <v>35</v>
+      <c r="S23" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T23" s="1"/>
     </row>
@@ -2494,8 +2502,8 @@
         <v>53</v>
       </c>
       <c r="F24" s="3"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="28" t="s">
         <v>64</v>
       </c>
@@ -2518,13 +2526,13 @@
         <v>1</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Q24" s="24" t="s">
+      <c r="Q24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="26" t="s">
+      <c r="S24" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T24" s="1"/>
@@ -2544,8 +2552,8 @@
         <v>80</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="28" t="s">
         <v>64</v>
       </c>
@@ -2568,14 +2576,14 @@
         <v>1</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Q25" s="24" t="s">
+      <c r="Q25" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S25" s="26" t="s">
-        <v>35</v>
+      <c r="S25" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T25" s="1"/>
     </row>
@@ -2594,8 +2602,8 @@
         <v>80</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="28" t="s">
         <v>64</v>
       </c>
@@ -2618,13 +2626,13 @@
         <v>1</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="Q26" s="24" t="s">
+      <c r="Q26" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="S26" s="26" t="s">
+      <c r="S26" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T26" s="1"/>
@@ -2644,9 +2652,9 @@
         <v>53</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23" t="s">
         <v>64</v>
       </c>
       <c r="J27" s="29">
@@ -2668,20 +2676,20 @@
         <v>1</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Q27" s="24" t="s">
+      <c r="Q27" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="26" t="s">
+      <c r="S27" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="72"/>
       <c r="D28" s="73" t="s">
         <v>108</v>
@@ -2690,9 +2698,9 @@
         <v>53</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
@@ -2713,86 +2721,86 @@
       <c r="A29" s="1"/>
       <c r="B29" s="73"/>
       <c r="C29" s="74"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S29" s="26" t="s">
+      <c r="S29" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="72"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="3"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="75"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S30" s="26" t="s">
+      <c r="S30" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="72"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="75"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="36" t="s">
         <v>113</v>
@@ -2803,88 +2811,88 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="21"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="72"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="75"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="24" t="s">
+      <c r="Q32" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S32" s="26" t="s">
-        <v>35</v>
+      <c r="S32" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="21"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="72"/>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="22" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="3"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="75"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="24" t="s">
+      <c r="Q33" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S33" s="26" t="s">
+      <c r="S33" s="27" t="s">
         <v>92</v>
       </c>
       <c r="T33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1"/>
-      <c r="B34" s="21"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="72"/>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="75"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="37" t="s">
         <v>117</v>
@@ -2895,45 +2903,45 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1"/>
-      <c r="B35" s="21"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="72"/>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="22" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="3"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="75"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="24" t="s">
+      <c r="Q35" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S35" s="26" t="s">
+      <c r="S35" s="27" t="s">
         <v>92</v>
       </c>
       <c r="T35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1"/>
-      <c r="B36" s="21"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="72"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="75"/>
       <c r="J36" s="76"/>
       <c r="K36" s="76"/>
@@ -2942,13 +2950,13 @@
       <c r="N36" s="76"/>
       <c r="O36" s="76"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="24" t="s">
+      <c r="Q36" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S36" s="26" t="s">
+      <c r="S36" s="27" t="s">
         <v>92</v>
       </c>
       <c r="T36" s="1"/>
@@ -2970,13 +2978,13 @@
       <c r="N37" s="76"/>
       <c r="O37" s="76"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="24" t="s">
+      <c r="Q37" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S37" s="26" t="s">
+      <c r="S37" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T37" s="1"/>
@@ -2998,14 +3006,14 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="24" t="s">
+      <c r="Q38" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S38" s="26" t="s">
-        <v>35</v>
+      <c r="S38" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T38" s="1"/>
     </row>
@@ -3026,14 +3034,14 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="24" t="s">
+      <c r="Q39" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S39" s="26" t="s">
-        <v>35</v>
+      <c r="S39" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="T39" s="1"/>
     </row>
@@ -3054,13 +3062,13 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="S40" s="26" t="s">
+      <c r="S40" s="27" t="s">
         <v>119</v>
       </c>
       <c r="T40" s="1"/>
@@ -3082,13 +3090,13 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S41" s="26" t="s">
+      <c r="S41" s="27" t="s">
         <v>49</v>
       </c>
       <c r="T41" s="1"/>
@@ -3112,13 +3120,13 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="24" t="s">
+      <c r="Q42" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="R42" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="S42" s="26"/>
+      <c r="S42" s="27"/>
       <c r="T42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
